--- a/input_data/admin_data/URY/gpinter_URY_2016.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2016.xlsx
@@ -2508,31 +2508,31 @@
         <v>96445.306209234841</v>
       </c>
       <c r="D56">
-        <v>0.41726287963681291</v>
+        <v>0.41576875556704879</v>
       </c>
       <c r="E56">
-        <v>0.58273712036318703</v>
+        <v>0.58423124443295116</v>
       </c>
       <c r="F56">
-        <v>0.44930034767117782</v>
+        <v>0.45013360917162321</v>
       </c>
       <c r="G56">
-        <v>0.30023273855702087</v>
+        <v>0.30043387064333532</v>
       </c>
       <c r="H56">
-        <v>0.2253254029825015</v>
+        <v>0.2243484757061173</v>
       </c>
       <c r="I56">
-        <v>0.025141510789299801</v>
+        <v>0.025084044478924199</v>
       </c>
       <c r="J56">
-        <v>0.66516754861080285</v>
+        <v>0.66519776085629334</v>
       </c>
       <c r="K56">
         <v>0.0188298258066203</v>
       </c>
       <c r="L56">
-        <v>0.28824639955775638</v>
+        <v>0.28821618731226589</v>
       </c>
       <c r="M56">
         <v>0.027756226035620699</v>
@@ -2558,31 +2558,31 @@
         <v>101931.6249544297</v>
       </c>
       <c r="D57">
-        <v>0.41236135854261252</v>
+        <v>0.41310844204356068</v>
       </c>
       <c r="E57">
-        <v>0.58763864145738753</v>
+        <v>0.58689155795643932</v>
       </c>
       <c r="F57">
-        <v>0.23952646399632199</v>
+        <v>0.23955519797712779</v>
       </c>
       <c r="G57">
-        <v>0.27466812252169409</v>
+        <v>0.27236940405723808</v>
       </c>
       <c r="H57">
-        <v>0.47801850468363888</v>
+        <v>0.48023102120567779</v>
       </c>
       <c r="I57">
-        <v>0.0077869087983449001</v>
+        <v>0.0078443767599562994</v>
       </c>
       <c r="J57">
-        <v>0.16030909104931021</v>
+        <v>0.1602805041117939</v>
       </c>
       <c r="K57">
         <v>0.0044291298616023003</v>
       </c>
       <c r="L57">
-        <v>0.82767988074555998</v>
+        <v>0.82770846768307627</v>
       </c>
       <c r="M57">
         <v>0.0075818983485102</v>
@@ -2608,19 +2608,19 @@
         <v>104571.45129365769</v>
       </c>
       <c r="D58">
-        <v>0.4762369978736854</v>
+        <v>0.47698408137463372</v>
       </c>
       <c r="E58">
-        <v>0.52376300212631466</v>
+        <v>0.52301591862536634</v>
       </c>
       <c r="F58">
-        <v>0.37167404172174012</v>
+        <v>0.3708120222975691</v>
       </c>
       <c r="G58">
-        <v>0.35905982414803739</v>
+        <v>0.36115740474685359</v>
       </c>
       <c r="H58">
-        <v>0.26334693408424797</v>
+        <v>0.2621113729096029</v>
       </c>
       <c r="I58">
         <v>0.0059192000459744</v>
@@ -2658,22 +2658,22 @@
         <v>107701.7668500104</v>
       </c>
       <c r="D59">
-        <v>0.32360209183380267</v>
+        <v>0.3221941267743233</v>
       </c>
       <c r="E59">
-        <v>0.67639790816619727</v>
+        <v>0.67780587322567665</v>
       </c>
       <c r="F59">
-        <v>0.0172116545026148</v>
+        <v>0.017326590425837601</v>
       </c>
       <c r="G59">
-        <v>0.053933681972300397</v>
+        <v>0.0548244353772772</v>
       </c>
       <c r="H59">
-        <v>0.9279064421584966</v>
+        <v>0.92684328486868572</v>
       </c>
       <c r="I59">
-        <v>0.0009482213665881</v>
+        <v>0.0010056893281995001</v>
       </c>
       <c r="J59">
         <v>0.022413834415339302</v>
@@ -2708,31 +2708,31 @@
         <v>107732.3877112785</v>
       </c>
       <c r="D60">
-        <v>0.31761629744562248</v>
+        <v>0.31908168836019879</v>
       </c>
       <c r="E60">
-        <v>0.68238370255437752</v>
+        <v>0.68091831163980121</v>
       </c>
       <c r="F60">
-        <v>0.0223831278912737</v>
+        <v>0.0222107289601471</v>
       </c>
       <c r="G60">
-        <v>0.060253426428756099</v>
+        <v>0.059362698617935201</v>
       </c>
       <c r="H60">
-        <v>0.91630031893802255</v>
+        <v>0.9174209119903457</v>
       </c>
       <c r="I60">
-        <v>0.0010631267419474999</v>
+        <v>0.0010056604315719999</v>
       </c>
       <c r="J60">
-        <v>0.027690181650782301</v>
+        <v>0.027661322712537399</v>
       </c>
       <c r="K60">
         <v>0.00070689628418760004</v>
       </c>
       <c r="L60">
-        <v>0.9706016954655915</v>
+        <v>0.97063055440383639</v>
       </c>
       <c r="M60">
         <v>0.0010012266015191999</v>
@@ -2758,31 +2758,31 @@
         <v>111469.8275949927</v>
       </c>
       <c r="D61">
-        <v>0.38888569622435493</v>
+        <v>0.38882822826274349</v>
       </c>
       <c r="E61">
-        <v>0.61111430377564502</v>
+        <v>0.61117177173725645</v>
       </c>
       <c r="F61">
-        <v>0.27150738463306712</v>
+        <v>0.27156485259467839</v>
       </c>
       <c r="G61">
         <v>0.18823630825814611</v>
       </c>
       <c r="H61">
-        <v>0.52611918855238204</v>
+        <v>0.52606172059077061</v>
       </c>
       <c r="I61">
         <v>0.0141371185564048</v>
       </c>
       <c r="J61">
-        <v>0.42034127118915748</v>
+        <v>0.4203691633257669</v>
       </c>
       <c r="K61">
         <v>0.012938518754118101</v>
       </c>
       <c r="L61">
-        <v>0.54885611926277944</v>
+        <v>0.54882822712617008</v>
       </c>
       <c r="M61">
         <v>0.017864090790746998</v>
@@ -2858,16 +2858,16 @@
         <v>129307.8908301786</v>
       </c>
       <c r="D63">
-        <v>0.47054766967415668</v>
+        <v>0.46982932015401407</v>
       </c>
       <c r="E63">
-        <v>0.52945233032584338</v>
+        <v>0.53017067984598587</v>
       </c>
       <c r="F63">
-        <v>0.26742715935865757</v>
+        <v>0.26739842537785191</v>
       </c>
       <c r="G63">
-        <v>0.18596632377449571</v>
+        <v>0.1859950577553014</v>
       </c>
       <c r="H63">
         <v>0.53373369346589272</v>
@@ -2876,13 +2876,13 @@
         <v>0.012872823400953999</v>
       </c>
       <c r="J63">
-        <v>0.40572380397177232</v>
+        <v>0.40569448887796411</v>
       </c>
       <c r="K63">
         <v>0.0108598913297005</v>
       </c>
       <c r="L63">
-        <v>0.56783296219202406</v>
+        <v>0.56786227728583227</v>
       </c>
       <c r="M63">
         <v>0.0155833425015815</v>
@@ -2908,16 +2908,16 @@
         <v>132380.03432588291</v>
       </c>
       <c r="D64">
-        <v>0.50844779035687604</v>
+        <v>0.50913740589621281</v>
       </c>
       <c r="E64">
-        <v>0.49155220964312402</v>
+        <v>0.49086259410378719</v>
       </c>
       <c r="F64">
-        <v>0.096603643468766195</v>
+        <v>0.096632377449571899</v>
       </c>
       <c r="G64">
-        <v>0.070628124820412599</v>
+        <v>0.070599390839606896</v>
       </c>
       <c r="H64">
         <v>0.82794092293546351</v>
@@ -2926,13 +2926,13 @@
         <v>0.0048273087753576997</v>
       </c>
       <c r="J64">
-        <v>0.1522833473867965</v>
+        <v>0.1523119821652141</v>
       </c>
       <c r="K64">
         <v>0.0039004433567310002</v>
       </c>
       <c r="L64">
-        <v>0.838115457923024</v>
+        <v>0.83808682314460636</v>
       </c>
       <c r="M64">
         <v>0.0057007513623823997</v>
@@ -2958,10 +2958,10 @@
         <v>139220.821812685</v>
       </c>
       <c r="D65">
-        <v>0.43220412033445388</v>
+        <v>0.43223285348964169</v>
       </c>
       <c r="E65">
-        <v>0.56779587966554601</v>
+        <v>0.56776714651035831</v>
       </c>
       <c r="F65">
         <v>0.34683791627158578</v>
@@ -3408,10 +3408,10 @@
         <v>221092.23061409939</v>
       </c>
       <c r="D74">
-        <v>0.4774875729103813</v>
+        <v>0.47751630606556911</v>
       </c>
       <c r="E74">
-        <v>0.52251242708961865</v>
+        <v>0.52248369393443095</v>
       </c>
       <c r="F74">
         <v>0.41970519782777349</v>
@@ -3458,10 +3458,10 @@
         <v>231238.92915412551</v>
       </c>
       <c r="D75">
-        <v>0.49546003103269931</v>
+        <v>0.49543129705189359</v>
       </c>
       <c r="E75">
-        <v>0.50453996896730069</v>
+        <v>0.50456870294810641</v>
       </c>
       <c r="F75">
         <v>0.43612436066892712</v>
@@ -3658,16 +3658,16 @@
         <v>277222.40869411401</v>
       </c>
       <c r="D79">
-        <v>0.49573312645461598</v>
+        <v>0.49576185960980368</v>
       </c>
       <c r="E79">
-        <v>0.50426687354538402</v>
+        <v>0.50423814039019632</v>
       </c>
       <c r="F79">
-        <v>0.43088239519581639</v>
+        <v>0.4309111283510042</v>
       </c>
       <c r="G79">
-        <v>0.2947734390713444</v>
+        <v>0.29474470591615659</v>
       </c>
       <c r="H79">
         <v>0.26546562077981778</v>
@@ -3708,16 +3708,16 @@
         <v>290120.56932791218</v>
       </c>
       <c r="D80">
-        <v>0.5050859146026091</v>
+        <v>0.50505718062180338</v>
       </c>
       <c r="E80">
-        <v>0.4949140853973909</v>
+        <v>0.49494281937819662</v>
       </c>
       <c r="F80">
-        <v>0.423165335325556</v>
+        <v>0.42313660134475028</v>
       </c>
       <c r="G80">
-        <v>0.29009827021435552</v>
+        <v>0.29012700419516119</v>
       </c>
       <c r="H80">
         <v>0.27699557496695593</v>
@@ -4314,10 +4314,10 @@
         <v>0.44430077866850559</v>
       </c>
       <c r="F92">
-        <v>0.33298853547108009</v>
+        <v>0.33301726862626779</v>
       </c>
       <c r="G92">
-        <v>0.38864465706979279</v>
+        <v>0.38861592391460509</v>
       </c>
       <c r="H92">
         <v>0.27029279085136337</v>
@@ -4364,10 +4364,10 @@
         <v>0.44888224814665822</v>
       </c>
       <c r="F93">
-        <v>0.31932072869375322</v>
+        <v>0.31929199471294761</v>
       </c>
       <c r="G93">
-        <v>0.40681570024711222</v>
+        <v>0.40684443422791788</v>
       </c>
       <c r="H93">
         <v>0.26438135739325319</v>
